--- a/Sizing Code/weights.xlsx
+++ b/Sizing Code/weights.xlsx
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>95.4 x 56.0 x 20.6mm</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>117g</t>
-  </si>
-  <si>
-    <t>70  x 45  x 15 mm</t>
-  </si>
-  <si>
-    <t>28g</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ardupilot</t>
   </si>
@@ -42,58 +24,37 @@
     <t>GPS module</t>
   </si>
   <si>
-    <t>38 x 38 x 8.5 mm</t>
-  </si>
-  <si>
-    <t>16.8g</t>
-  </si>
-  <si>
-    <t>MarcoPolo</t>
-  </si>
-  <si>
-    <t>12g</t>
-  </si>
-  <si>
-    <t>FlatMap gimbal</t>
-  </si>
-  <si>
-    <t>178g</t>
-  </si>
-  <si>
-    <t>116 x 65 mm</t>
-  </si>
-  <si>
-    <t>64 x 22.4 x 12.7 mm</t>
-  </si>
-  <si>
-    <t>Battery 5000 mAh</t>
-  </si>
-  <si>
-    <t>Camera ELPH 130</t>
-  </si>
-  <si>
-    <t>147.3 x 54.61 x 43.18</t>
-  </si>
-  <si>
-    <t>808g</t>
-  </si>
-  <si>
     <t>Speed Controller</t>
   </si>
   <si>
-    <t>3DR Telemetry</t>
-  </si>
-  <si>
-    <t>55 x 19 * 10 mm</t>
-  </si>
-  <si>
-    <t>25g</t>
-  </si>
-  <si>
-    <t>26.7  x 55.5 x 13.3 mm</t>
-  </si>
-  <si>
-    <t>4g</t>
+    <t>PART</t>
+  </si>
+  <si>
+    <t>Lx(cm)</t>
+  </si>
+  <si>
+    <t>Ly(cm)</t>
+  </si>
+  <si>
+    <t>Lz(cm)</t>
+  </si>
+  <si>
+    <t>mass(g)</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Marcopolo</t>
+  </si>
+  <si>
+    <t>Camera+Gimbal</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>Telemetry</t>
   </si>
 </sst>
 </file>
@@ -432,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="D6:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,99 +406,156 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>14.73</v>
+      </c>
+      <c r="F8">
+        <v>5.46</v>
+      </c>
+      <c r="G8">
+        <v>4.32</v>
+      </c>
+      <c r="H8">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>6.4</v>
+      </c>
+      <c r="F9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G9">
+        <v>1.27</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>18.7</v>
+      </c>
+      <c r="F10">
+        <v>9.35</v>
+      </c>
+      <c r="G10">
+        <v>6.17</v>
+      </c>
+      <c r="H10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>4.5</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1.9</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>5.55</v>
+      </c>
+      <c r="F13">
+        <v>2.67</v>
+      </c>
+      <c r="G13">
+        <v>1.33</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3.8</v>
+      </c>
+      <c r="F14">
+        <v>3.8</v>
+      </c>
+      <c r="G14">
+        <v>0.85</v>
+      </c>
+      <c r="H14">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E15">
+        <v>5.5</v>
+      </c>
+      <c r="F15">
+        <v>1.9</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H15">
         <v>25</v>
       </c>
     </row>
